--- a/data/trans_camb/P14B35-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P14B35-Provincia-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.32482454976617</v>
+        <v>0.3213946296017631</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3161747991897541</v>
+        <v>0.316514874113424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.133813041832104</v>
+        <v>0.1293473599670103</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.738762342253489</v>
+        <v>2.994888207818859</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.642216990008374</v>
+        <v>2.595291306346624</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.236722221153327</v>
+        <v>1.188505253592308</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.3802549790937066</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.391469477790057</v>
+        <v>3.391469477790056</v>
       </c>
     </row>
     <row r="11">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.204943281378595</v>
+        <v>1.31320184379202</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.834687637504591</v>
+        <v>2.039062428644827</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.203868211577215</v>
+        <v>3.881292836719976</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.149112816280902</v>
+        <v>1.32214212487394</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.482204807403254</v>
+        <v>5.595186181722294</v>
       </c>
     </row>
     <row r="13">
@@ -790,7 +790,7 @@
         <v>0.2734092928523754</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2.052627800981904</v>
+        <v>2.052627800981905</v>
       </c>
     </row>
     <row r="17">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9201103910744765</v>
+        <v>0.8670477852115801</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.466645917035446</v>
+        <v>1.447319520228031</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.367800292474243</v>
+        <v>1.784051766119721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.357782224720559</v>
+        <v>4.169103138148327</v>
       </c>
     </row>
     <row r="19">
@@ -890,7 +890,7 @@
         <v>0.4853027327252579</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.121043315195471</v>
+        <v>3.12104331519547</v>
       </c>
     </row>
     <row r="23">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2624036753602764</v>
+        <v>0.2598649218045865</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.680688729087058</v>
+        <v>1.686474714223251</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.518553716228046</v>
+        <v>2.523139745503823</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.753716047622629</v>
+        <v>1.720751374870984</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.840974935290867</v>
+        <v>5.629999924517072</v>
       </c>
     </row>
     <row r="25">
@@ -990,7 +990,7 @@
         <v>0.9450555090544809</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.426701324594288</v>
+        <v>2.426701324594287</v>
       </c>
     </row>
     <row r="29">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.57793000966219</v>
+        <v>2.244806160898435</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.111188067382335</v>
+        <v>1.236923963200202</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.935105888529399</v>
+        <v>8.113458418539496</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.03279593926789</v>
+        <v>3.315494659630008</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.405296168709929</v>
+        <v>4.490087971576606</v>
       </c>
     </row>
     <row r="31">
@@ -1101,11 +1101,11 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.3506679497457041</v>
+        <v>0.3498733620386216</v>
       </c>
       <c r="D35" s="5" t="inlineStr"/>
       <c r="E35" s="5" t="n">
-        <v>1.246483611968636</v>
+        <v>1.220218652608813</v>
       </c>
     </row>
     <row r="36">
@@ -1116,11 +1116,11 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.078325250952045</v>
+        <v>2.932359969863997</v>
       </c>
       <c r="D36" s="5" t="inlineStr"/>
       <c r="E36" s="5" t="n">
-        <v>4.971130125544351</v>
+        <v>4.938291073420017</v>
       </c>
     </row>
     <row r="37">
@@ -1182,7 +1182,7 @@
         <v>0.8361977350717331</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7.708767284642308</v>
+        <v>7.708767284642307</v>
       </c>
     </row>
     <row r="41">
@@ -1193,13 +1193,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1562242381633705</v>
+        <v>0.1713347951065954</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.3721612239391754</v>
+        <v>0.3122256129408297</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.927130584469463</v>
+        <v>5.809841568618424</v>
       </c>
     </row>
     <row r="42">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.74862882504384</v>
+        <v>1.806040909131197</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.744797129536502</v>
+        <v>1.870423333308842</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10.11117584008254</v>
+        <v>10.02845247598837</v>
       </c>
     </row>
     <row r="43">
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.2524071350847044</v>
+        <v>0.2465114161019256</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.4762401147828613</v>
+        <v>0.4456548169563117</v>
       </c>
     </row>
     <row r="48">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.55026096988377</v>
+        <v>1.459532274413536</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.9349873036841552</v>
+        <v>0.8437469265038688</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.097946915444362</v>
+        <v>2.083085197074864</v>
       </c>
     </row>
     <row r="49">
@@ -1393,13 +1393,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.9240369375185556</v>
+        <v>0.9214256397767618</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.2976919334980935</v>
+        <v>0.3163506210374268</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2.625662940003529</v>
+        <v>2.65779752464241</v>
       </c>
     </row>
     <row r="54">
@@ -1410,13 +1410,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.628327980634115</v>
+        <v>1.667096135905205</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.7349480247965187</v>
+        <v>0.7730235636675035</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.940580678621171</v>
+        <v>3.941339884312332</v>
       </c>
     </row>
     <row r="55">
